--- a/biology/Botanique/Schisandraceae/Schisandraceae.xlsx
+++ b/biology/Botanique/Schisandraceae/Schisandraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Schisandracées est une famille de plantes angiospermes primitives.
 Ce sont des lianes, productrices d'huiles essentielles, à feuilles persistantes ou caduques, avec parfois des rosettes de feuilles terminales, des régions tempérées à tropicales. On les rencontre en Eurasie et au sud-est des États-Unis.
 La classification phylogénétique situe cette famille parmi les familles de divergence ancienne.
-La classification phylogénétique APG II (2003)[1] la rapproche de 3 autres familles : Austrobaileyacées, Triméniacées, Illiciacées pour former l'ordre des Austrobaileyales. Optionnellement, la famille peut inclure les Illiciacées.
-En classification phylogénétique APG III (2009)[2], qui n'a jamais recours à des familles optionnelles, cette famille est reconnue dans sa forme large (contenant le genre Illicium anciennement dans Illiciaceae).
+La classification phylogénétique APG II (2003) la rapproche de 3 autres familles : Austrobaileyacées, Triméniacées, Illiciacées pour former l'ordre des Austrobaileyales. Optionnellement, la famille peut inclure les Illiciacées.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, cette famille est reconnue dans sa forme large (contenant le genre Illicium anciennement dans Illiciaceae).
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de famille vient du genre Schisandra lui-même issu du grec σχίζω skízô fendre, séparer en fendant et ἀνήρ anếr, génitif ἀνδρός andrós, mâle, homme[3] en référence aux cellules séparées de l'anthère[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de famille vient du genre Schisandra lui-même issu du grec σχίζω skízô fendre, séparer en fendant et ἀνήρ anếr, génitif ἀνδρός andrós, mâle, homme en référence aux cellules séparées de l'anthère.
 </t>
         </is>
       </c>
@@ -546,17 +560,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[2] inclut dans cette famille les genres précédemment placés dans la famille Illiciaceae. Le genre Illicium pour être précis.
-Selon Angiosperm Phylogeny Website                        (27 mars 2010)[5] et NCBI  (27 mars 2010)[6] (Plus conforme à APGIII puisqu'il incorpore le genre Illicium anciennement dans Illiciaceae) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Illiciaceae. Le genre Illicium pour être précis.
+Selon Angiosperm Phylogeny Website                        (27 mars 2010) et NCBI  (27 mars 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Illicium anciennement dans Illiciaceae) :
 genre Illicium (anciennement dans Illiciaceae)
 genre Kadsura
 genre Schisandra
-Selon DELTA Angio           (27 mars 2010)[7] (plus conforme à la définition APGII) :
+Selon DELTA Angio           (27 mars 2010) (plus conforme à la définition APGII) :
 genre Kadsura
 genre Schisandra
-Selon ITIS      (27 mars 2010)[8] :
+Selon ITIS      (27 mars 2010) :
 genre Schisandra Michx.</t>
         </is>
       </c>
